--- a/poverty-change-states-20160921/poverty-change-states-20160921.xlsx
+++ b/poverty-change-states-20160921/poverty-change-states-20160921.xlsx
@@ -15,27 +15,54 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="173">
   <si>
+    <t>state_name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>usps</t>
   </si>
   <si>
     <t>ap</t>
   </si>
   <si>
+    <t>num14</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>state_name</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
+    <t>pct14</t>
+  </si>
+  <si>
+    <t>num15</t>
+  </si>
+  <si>
+    <t>pct15</t>
+  </si>
+  <si>
+    <t>numchg</t>
+  </si>
+  <si>
+    <t>pctchg</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -48,75 +75,75 @@
     <t>AK</t>
   </si>
   <si>
-    <t>headline</t>
+    <t xml:space="preserve"> 8.2%</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Ariz.</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Ark.</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Calif.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colo.</t>
   </si>
   <si>
     <t>The State of Poverty</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Ariz.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Ark.</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Calif.</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colo.</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Conn.</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Del.</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Conn.</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
+    <t>District of Columbia</t>
   </si>
   <si>
     <t xml:space="preserve">New Hampshire had the lowest poverty rate (8.2%) in 2015, while Mississippi had the highest rate (22%). </t>
   </si>
   <si>
-    <t>Del.</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -141,21 +168,24 @@
     <t>Ga.</t>
   </si>
   <si>
+    <t>Maryland</t>
+  </si>
+  <si>
     <t>Hawaii</t>
   </si>
   <si>
     <t>HI</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
     <t>Illinois</t>
   </si>
   <si>
@@ -171,100 +201,124 @@
     <t>IN</t>
   </si>
   <si>
+    <t>Vermont</t>
+  </si>
+  <si>
     <t>Ind.</t>
   </si>
   <si>
+    <t>footnote</t>
+  </si>
+  <si>
     <t>Iowa</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kan.</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Ky.</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>La.</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Md.</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Mass.</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Mich.</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Minn.</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Miss.</t>
   </si>
   <si>
     <t>Poverty as defined by the U.S. Census Bureau. Read more information &lt;a href="www2.census.gov/programs-surveys/acs/tech_docs/subject
 _definitions/2014_ACSSubjectDefinitions.pdf"&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kan.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, &lt;a href="https://www.census.gov/content/dam/Census/library/publications/2016/demo/acsbr15-01.pdf"&gt;American Community Survey&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Ky.</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>La.</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Md.</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com/about"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mass.</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Mich.</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Minn.</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Miss.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -274,12 +328,6 @@
     <t>Mo.</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>num14</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -289,6 +337,9 @@
     <t>Mont.</t>
   </si>
   <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -307,21 +358,12 @@
     <t>Nev.</t>
   </si>
   <si>
-    <t>U.S. Census Bureau, &lt;a href="https://www.census.gov/content/dam/Census/library/publications/2016/demo/acsbr15-01.pdf"&gt;American Community Survey&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
     <t>N.H.</t>
   </si>
   <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
     <t>NJ</t>
   </si>
   <si>
@@ -331,6 +373,9 @@
     <t>New Mexico</t>
   </si>
   <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
@@ -355,10 +400,7 @@
     <t>N.C.</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
+    <t>Washington</t>
   </si>
   <si>
     <t>ND</t>
@@ -373,57 +415,42 @@
     <t>OH</t>
   </si>
   <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com/about"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>pct14</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>Okla.</t>
   </si>
   <si>
-    <t>num15</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>pct15</t>
-  </si>
-  <si>
     <t>Ore.</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>numchg</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
     <t>Pa.</t>
   </si>
   <si>
-    <t>pctchg</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
     <t>RI</t>
   </si>
   <si>
+    <t>13%</t>
+  </si>
+  <si>
     <t>R.I.</t>
   </si>
   <si>
@@ -460,33 +487,21 @@
     <t>TX</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
     <t>UT</t>
   </si>
   <si>
-    <t>Vermont</t>
-  </si>
-  <si>
     <t>VT</t>
   </si>
   <si>
     <t>Vt.</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
     <t>Va.</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -502,31 +517,16 @@
     <t>W.Va.</t>
   </si>
   <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
     <t>Wis.</t>
   </si>
   <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>WY</t>
   </si>
   <si>
     <t>Wyo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.2%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>13%</t>
   </si>
   <si>
     <t>16%</t>
@@ -547,20 +547,20 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14.0"/>
+    </font>
+    <font/>
     <font>
       <sz val="14.0"/>
       <name val="Arial"/>
@@ -581,58 +581,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -642,19 +637,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -665,588 +663,588 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" ht="33.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" ht="33.0" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="B6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1255,6 +1253,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1266,645 +1267,645 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="B47" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="5"/>
+      <c r="B52" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="12"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1913,6 +1914,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1929,1368 +1933,1368 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11">
+        <v>117983.0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>9.2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>106046.0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>8.2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-11937.0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11">
+        <v>589818.0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>570776.0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>9.7</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-19042.0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>611354.0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>546431.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-64923.0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11">
+        <v>73149.0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>61314.0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-11835.0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>80627.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>74532.0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-6095.0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
+        <v>374772.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="E7" s="11">
+        <v>366909.0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>-7863.0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11">
+        <v>156729.0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>147984.0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="G8" s="11">
+        <v>-8745.0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>972903.0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>946114.0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-26789.0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="11">
+        <v>82264.0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>80170.0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>-2094.0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="11">
+        <v>63774.0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>63425.0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-349.0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="11">
+        <v>953395.0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="E12" s="11">
+        <v>909346.0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-44049.0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="11">
+        <v>339900.0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>11.7</v>
+      </c>
+      <c r="E13" s="11">
+        <v>331854.0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-8046.0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11">
+        <v>630786.0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>613549.0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-17237.0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="11">
+        <v>757235.0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="E15" s="11">
+        <v>752071.0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-5164.0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="11">
+        <v>738270.0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>677964.0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-60306.0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="11">
+        <v>367816.0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>367414.0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>-402.0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="11">
+        <v>913619.0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="E18" s="11">
+        <v>857801.0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-55818.0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="11">
+        <v>113508.0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="E19" s="11">
+        <v>114360.0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="G19" s="13">
+        <v>852.0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="11">
+        <v>227310.0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>231321.0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4011.0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="11">
+        <v>382712.0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="E21" s="11">
+        <v>368879.0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-13833.0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1682212.0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1629995.0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>-52217.0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="11">
+        <v>182791.0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>172620.0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-10171.0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1804535.0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1703258.0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="G24" s="11">
+        <v>-101277.0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="11">
+        <v>116843.0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>114071.0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>13.7</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-2772.0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="11">
+        <v>145596.0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="E26" s="11">
+        <v>141035.0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="G26" s="11">
+        <v>-4561.0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="11">
+        <v>974218.0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>933181.0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G27" s="11">
+        <v>-41037.0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11">
+        <v>153954.0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="E28" s="11">
+        <v>147287.0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>14.6</v>
+      </c>
+      <c r="G28" s="11">
+        <v>-6667.0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="11">
+        <v>426730.0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>418243.0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>14.7</v>
+      </c>
+      <c r="G29" s="11">
+        <v>-8487.0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="11">
+        <v>908628.0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>875495.0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-33133.0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1785780.0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1674415.0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="G31" s="11">
+        <v>-111365.0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="11">
+        <v>237981.0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="E32" s="11">
+        <v>245551.0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7570.0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6259098.0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="E33" s="11">
+        <v>5891678.0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="G33" s="11">
+        <v>-367420.0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3062938.0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2970032.0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="G34" s="11">
+        <v>-92906.0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="11">
+        <v>644450.0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>16.6</v>
+      </c>
+      <c r="E35" s="11">
+        <v>607029.0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="G35" s="11">
+        <v>-37421.0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3211615.0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="E36" s="11">
+        <v>3116886.0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="G36" s="11">
+        <v>-94729.0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1568844.0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1529645.0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="G37" s="11">
+        <v>-39199.0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="11">
+        <v>4523708.0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4255517.0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-268191.0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="14">
-        <v>117983.0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>9.2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>106046.0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>8.2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>-11937.0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="B39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="11">
+        <v>623840.0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>16.6</v>
+      </c>
+      <c r="E39" s="11">
+        <v>610828.0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>16.1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>-13012.0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1668686.0</v>
+      </c>
+      <c r="D40" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1607835.0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-60851.0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="11">
+        <v>843860.0</v>
+      </c>
+      <c r="D41" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>790715.0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>16.6</v>
+      </c>
+      <c r="G41" s="11">
+        <v>-53145.0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1171307.0</v>
+      </c>
+      <c r="D42" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1077900.0</v>
+      </c>
+      <c r="F42" s="13">
+        <v>16.7</v>
+      </c>
+      <c r="G42" s="11">
+        <v>-93407.0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1797969.0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1694988.0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>-102981.0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="11">
+        <v>110666.0</v>
+      </c>
+      <c r="D44" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="E44" s="11">
+        <v>110500.0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="G44" s="13">
+        <v>-166.0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1199061.0</v>
+      </c>
+      <c r="D45" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1159043.0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>17.4</v>
+      </c>
+      <c r="G45" s="11">
+        <v>-40018.0</v>
+      </c>
+      <c r="H45" s="13">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="14">
-        <v>589818.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>10.1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>570776.0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>9.7</v>
-      </c>
-      <c r="G3" s="14">
-        <v>-19042.0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="14">
-        <v>611354.0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="E4" s="14">
-        <v>546431.0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>10.2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>-64923.0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="14">
-        <v>73149.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>61314.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>10.2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>-11835.0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="14">
-        <v>80627.0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>11.2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>74532.0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>10.3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>-6095.0</v>
-      </c>
-      <c r="H6" s="15">
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="11">
+        <v>327764.0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="E46" s="11">
+        <v>321583.0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>17.9</v>
+      </c>
+      <c r="G46" s="11">
+        <v>-6181.0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="11">
+        <v>910175.0</v>
+      </c>
+      <c r="D47" s="13">
+        <v>19.3</v>
+      </c>
+      <c r="E47" s="11">
+        <v>876016.0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="G47" s="11">
+        <v>-34159.0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="11">
+        <v>817542.0</v>
+      </c>
+      <c r="D48" s="13">
+        <v>19.1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>794055.0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-23487.0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="11">
+        <v>543882.0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="E49" s="11">
+        <v>550508.0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>19.1</v>
+      </c>
+      <c r="G49" s="11">
+        <v>6626.0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="11">
+        <v>896524.0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>19.8</v>
+      </c>
+      <c r="E50" s="11">
+        <v>889946.0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>19.6</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-6578.0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="11">
+        <v>436153.0</v>
+      </c>
+      <c r="D51" s="13">
+        <v>21.3</v>
+      </c>
+      <c r="E51" s="11">
+        <v>417834.0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>20.4</v>
+      </c>
+      <c r="G51" s="11">
+        <v>-18319.0</v>
+      </c>
+      <c r="H51" s="13">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="14">
-        <v>374772.0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="E7" s="14">
-        <v>366909.0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>10.5</v>
-      </c>
-      <c r="G7" s="14">
-        <v>-7863.0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="14">
-        <v>156729.0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="E8" s="14">
-        <v>147984.0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>10.6</v>
-      </c>
-      <c r="G8" s="14">
-        <v>-8745.0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="14">
-        <v>972903.0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>11.1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>946114.0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="G9" s="14">
-        <v>-26789.0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="14">
-        <v>82264.0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="E10" s="14">
-        <v>80170.0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>-2094.0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="14">
-        <v>63774.0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>11.2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>63425.0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>11.1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-349.0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="14">
-        <v>953395.0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>11.8</v>
-      </c>
-      <c r="E12" s="14">
-        <v>909346.0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>11.2</v>
-      </c>
-      <c r="G12" s="14">
-        <v>-44049.0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="14">
-        <v>339900.0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>11.7</v>
-      </c>
-      <c r="E13" s="14">
-        <v>331854.0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>11.3</v>
-      </c>
-      <c r="G13" s="14">
-        <v>-8046.0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="14">
-        <v>630786.0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>613549.0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="G14" s="14">
-        <v>-17237.0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="14">
-        <v>757235.0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>11.6</v>
-      </c>
-      <c r="E15" s="14">
-        <v>752071.0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="G15" s="14">
-        <v>-5164.0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="14">
-        <v>738270.0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>13.2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>677964.0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>12.1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>-60306.0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="14">
-        <v>367816.0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>367414.0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-402.0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="14">
-        <v>913619.0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>13.2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>857801.0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="G18" s="14">
-        <v>-55818.0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="14">
-        <v>113508.0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>12.5</v>
-      </c>
-      <c r="E19" s="14">
-        <v>114360.0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>12.4</v>
-      </c>
-      <c r="G19" s="15">
-        <v>852.0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="14">
-        <v>227310.0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>12.4</v>
-      </c>
-      <c r="E20" s="14">
-        <v>231321.0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>12.6</v>
-      </c>
-      <c r="G20" s="14">
-        <v>4011.0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="14">
-        <v>382712.0</v>
-      </c>
-      <c r="D21" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="E21" s="14">
-        <v>368879.0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>13.0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>-13833.0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1682212.0</v>
-      </c>
-      <c r="D22" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1629995.0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>13.2</v>
-      </c>
-      <c r="G22" s="14">
-        <v>-52217.0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="14">
-        <v>182791.0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="E23" s="14">
-        <v>172620.0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>13.4</v>
-      </c>
-      <c r="G23" s="14">
-        <v>-10171.0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1804535.0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>14.4</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1703258.0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="G24" s="14">
-        <v>-101277.0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="14">
-        <v>116843.0</v>
-      </c>
-      <c r="D25" s="15">
-        <v>14.2</v>
-      </c>
-      <c r="E25" s="14">
-        <v>114071.0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="G25" s="14">
-        <v>-2772.0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="14">
-        <v>145596.0</v>
-      </c>
-      <c r="D26" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="E26" s="14">
-        <v>141035.0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>13.9</v>
-      </c>
-      <c r="G26" s="14">
-        <v>-4561.0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="14">
-        <v>974218.0</v>
-      </c>
-      <c r="D27" s="15">
-        <v>15.2</v>
-      </c>
-      <c r="E27" s="14">
-        <v>933181.0</v>
-      </c>
-      <c r="F27" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="G27" s="14">
-        <v>-41037.0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="14">
-        <v>153954.0</v>
-      </c>
-      <c r="D28" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="E28" s="14">
-        <v>147287.0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>14.6</v>
-      </c>
-      <c r="G28" s="14">
-        <v>-6667.0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="14">
-        <v>426730.0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>15.2</v>
-      </c>
-      <c r="E29" s="14">
-        <v>418243.0</v>
-      </c>
-      <c r="F29" s="15">
-        <v>14.7</v>
-      </c>
-      <c r="G29" s="14">
-        <v>-8487.0</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="14">
-        <v>908628.0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>15.5</v>
-      </c>
-      <c r="E30" s="14">
-        <v>875495.0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>14.8</v>
-      </c>
-      <c r="G30" s="14">
-        <v>-33133.0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1785780.0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>15.8</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1674415.0</v>
-      </c>
-      <c r="F31" s="15">
-        <v>14.8</v>
-      </c>
-      <c r="G31" s="14">
-        <v>-111365.0</v>
-      </c>
-      <c r="H31" s="15">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="14">
-        <v>237981.0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>14.8</v>
-      </c>
-      <c r="E32" s="14">
-        <v>245551.0</v>
-      </c>
-      <c r="F32" s="15">
-        <v>15.1</v>
-      </c>
-      <c r="G32" s="14">
-        <v>7570.0</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="14">
-        <v>6259098.0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>16.4</v>
-      </c>
-      <c r="E33" s="14">
-        <v>5891678.0</v>
-      </c>
-      <c r="F33" s="15">
-        <v>15.3</v>
-      </c>
-      <c r="G33" s="14">
-        <v>-367420.0</v>
-      </c>
-      <c r="H33" s="15">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="14">
-        <v>3062938.0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>15.9</v>
-      </c>
-      <c r="E34" s="14">
-        <v>2970032.0</v>
-      </c>
-      <c r="F34" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="G34" s="14">
-        <v>-92906.0</v>
-      </c>
-      <c r="H34" s="15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="14">
-        <v>644450.0</v>
-      </c>
-      <c r="D35" s="15">
-        <v>16.6</v>
-      </c>
-      <c r="E35" s="14">
-        <v>607029.0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="G35" s="14">
-        <v>-37421.0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="14">
-        <v>3211615.0</v>
-      </c>
-      <c r="D36" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E36" s="14">
-        <v>3116886.0</v>
-      </c>
-      <c r="F36" s="15">
-        <v>15.7</v>
-      </c>
-      <c r="G36" s="14">
-        <v>-94729.0</v>
-      </c>
-      <c r="H36" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1568844.0</v>
-      </c>
-      <c r="D37" s="15">
-        <v>16.2</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1529645.0</v>
-      </c>
-      <c r="F37" s="15">
-        <v>15.8</v>
-      </c>
-      <c r="G37" s="14">
-        <v>-39199.0</v>
-      </c>
-      <c r="H37" s="15">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="14">
-        <v>4523708.0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>17.2</v>
-      </c>
-      <c r="E38" s="14">
-        <v>4255517.0</v>
-      </c>
-      <c r="F38" s="15">
-        <v>15.9</v>
-      </c>
-      <c r="G38" s="14">
-        <v>-268191.0</v>
-      </c>
-      <c r="H38" s="15">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="14">
-        <v>623840.0</v>
-      </c>
-      <c r="D39" s="15">
-        <v>16.6</v>
-      </c>
-      <c r="E39" s="14">
-        <v>610828.0</v>
-      </c>
-      <c r="F39" s="15">
-        <v>16.1</v>
-      </c>
-      <c r="G39" s="14">
-        <v>-13012.0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1668686.0</v>
-      </c>
-      <c r="D40" s="15">
-        <v>17.2</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1607835.0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>16.4</v>
-      </c>
-      <c r="G40" s="14">
-        <v>-60851.0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="14">
-        <v>843860.0</v>
-      </c>
-      <c r="D41" s="15">
-        <v>18.0</v>
-      </c>
-      <c r="E41" s="14">
-        <v>790715.0</v>
-      </c>
-      <c r="F41" s="15">
-        <v>16.6</v>
-      </c>
-      <c r="G41" s="14">
-        <v>-53145.0</v>
-      </c>
-      <c r="H41" s="15">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1171307.0</v>
-      </c>
-      <c r="D42" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="E42" s="14">
-        <v>1077900.0</v>
-      </c>
-      <c r="F42" s="15">
-        <v>16.7</v>
-      </c>
-      <c r="G42" s="14">
-        <v>-93407.0</v>
-      </c>
-      <c r="H42" s="15">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="14">
-        <v>1797969.0</v>
-      </c>
-      <c r="D43" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="E43" s="14">
-        <v>1694988.0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>17.0</v>
-      </c>
-      <c r="G43" s="14">
-        <v>-102981.0</v>
-      </c>
-      <c r="H43" s="15">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="14">
-        <v>110666.0</v>
-      </c>
-      <c r="D44" s="15">
-        <v>17.7</v>
-      </c>
-      <c r="E44" s="14">
-        <v>110500.0</v>
-      </c>
-      <c r="F44" s="15">
-        <v>17.3</v>
-      </c>
-      <c r="G44" s="15">
-        <v>-166.0</v>
-      </c>
-      <c r="H44" s="15">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="14">
-        <v>1199061.0</v>
-      </c>
-      <c r="D45" s="15">
-        <v>18.2</v>
-      </c>
-      <c r="E45" s="14">
-        <v>1159043.0</v>
-      </c>
-      <c r="F45" s="15">
-        <v>17.4</v>
-      </c>
-      <c r="G45" s="14">
-        <v>-40018.0</v>
-      </c>
-      <c r="H45" s="15">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="14">
-        <v>327764.0</v>
-      </c>
-      <c r="D46" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="E46" s="14">
-        <v>321583.0</v>
-      </c>
-      <c r="F46" s="15">
-        <v>17.9</v>
-      </c>
-      <c r="G46" s="14">
-        <v>-6181.0</v>
-      </c>
-      <c r="H46" s="15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="13" t="s">
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="14">
-        <v>910175.0</v>
-      </c>
-      <c r="D47" s="15">
-        <v>19.3</v>
-      </c>
-      <c r="E47" s="14">
-        <v>876016.0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>18.5</v>
-      </c>
-      <c r="G47" s="14">
-        <v>-34159.0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="14">
-        <v>817542.0</v>
-      </c>
-      <c r="D48" s="15">
-        <v>19.1</v>
-      </c>
-      <c r="E48" s="14">
-        <v>794055.0</v>
-      </c>
-      <c r="F48" s="15">
-        <v>18.5</v>
-      </c>
-      <c r="G48" s="14">
-        <v>-23487.0</v>
-      </c>
-      <c r="H48" s="15">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="14">
-        <v>543882.0</v>
-      </c>
-      <c r="D49" s="15">
-        <v>18.9</v>
-      </c>
-      <c r="E49" s="14">
-        <v>550508.0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>19.1</v>
-      </c>
-      <c r="G49" s="14">
-        <v>6626.0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="14">
-        <v>896524.0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>19.8</v>
-      </c>
-      <c r="E50" s="14">
-        <v>889946.0</v>
-      </c>
-      <c r="F50" s="15">
-        <v>19.6</v>
-      </c>
-      <c r="G50" s="14">
-        <v>-6578.0</v>
-      </c>
-      <c r="H50" s="15">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="14">
-        <v>436153.0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>21.3</v>
-      </c>
-      <c r="E51" s="14">
-        <v>417834.0</v>
-      </c>
-      <c r="F51" s="15">
-        <v>20.4</v>
-      </c>
-      <c r="G51" s="14">
-        <v>-18319.0</v>
-      </c>
-      <c r="H51" s="15">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="14">
+      <c r="C52" s="11">
         <v>623113.0</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>21.5</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="11">
         <v>637128.0</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="13">
         <v>22.0</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="11">
         <v>14015.0</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="13">
         <v>0.5</v>
       </c>
     </row>
